--- a/Assets/Levels/Halloween Game Jam 2025 (1).xlsx
+++ b/Assets/Levels/Halloween Game Jam 2025 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\BLO.OD.-PAC.T\Assets\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C8F99F-138F-41C4-8423-396440E387D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8084A-2E03-40AC-B979-1A9A950B69CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2136" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1.1" sheetId="21" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1786,7 @@
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3634,7 +3634,7 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4219,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7537,7 +7537,7 @@
   </sheetPr>
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -8320,7 +8320,7 @@
   </sheetPr>
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -8796,7 +8796,7 @@
   </sheetPr>
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -9236,7 +9236,7 @@
   </sheetPr>
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -10923,7 +10923,7 @@
   <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11363,7 +11363,7 @@
   </sheetPr>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -12043,7 +12043,7 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -12423,7 +12423,7 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -13496,7 +13496,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assets/Levels/Halloween Game Jam 2025 (1).xlsx
+++ b/Assets/Levels/Halloween Game Jam 2025 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\BLO.OD.-PAC.T\Assets\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8084A-2E03-40AC-B979-1A9A950B69CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CFD312-B96F-4C98-97CE-4B3EF57CE225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2136" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1.1" sheetId="21" r:id="rId1"/>
